--- a/MoviePlayer_UDP_通信协议.xlsx
+++ b/MoviePlayer_UDP_通信协议.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="146">
   <si>
     <t>版本</t>
   </si>
@@ -544,15 +544,23 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>一个8个字节的数据空间，分别代表8个512特效设备数据位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>FF 66 00 0A 00 03 XX XX</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>一共12个字节的数据空间，两个字节代表一个杠数据，分别D1、D2、D3、D4、D5、D6，分别对应1号缸到6号缸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个30个字节的数据空间，每10个字节代表一个特效，代表3个512特效设备数据位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个为频闪灯，第二雪花机，第三个风机</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4861,7 +4869,7 @@
   <dimension ref="B3:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4918,7 +4926,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>108</v>
@@ -4950,24 +4958,26 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="40.5">
+    <row r="11" spans="2:5" ht="54">
       <c r="B11" s="5">
         <v>18</v>
       </c>
       <c r="C11" s="5">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="5">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>109</v>
@@ -5080,7 +5090,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>30</v>

--- a/MoviePlayer_UDP_通信协议.xlsx
+++ b/MoviePlayer_UDP_通信协议.xlsx
@@ -536,10 +536,6 @@
     <t>连接成功后收到一次时间码帧发送一次</t>
   </si>
   <si>
-    <t>一共4个字节的数据空间，分别SPA，SPB，SPC，SPD分别对应座椅特效1，座椅特效2和环境特效1，环境特效2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>一个2个字节的数据空间，分别代表振幅与频率</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -561,6 +557,10 @@
   </si>
   <si>
     <t>第一个为频闪灯，第二雪花机，第三个风机</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一共4个字节的数据空间，分别SPA，SPB，SPC，SPD分别对应座椅特效，环境特效，SPC、SPD预留</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3038,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4868,8 +4868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4926,7 +4926,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>108</v>
@@ -4940,11 +4940,11 @@
         <v>2</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" ht="67.5">
+    <row r="10" spans="2:5" ht="54">
       <c r="B10" s="3">
         <v>14</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>111</v>
@@ -4966,10 +4966,10 @@
         <v>30</v>
       </c>
       <c r="D11" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4977,7 +4977,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>109</v>
@@ -5090,7 +5090,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>30</v>

--- a/MoviePlayer_UDP_通信协议.xlsx
+++ b/MoviePlayer_UDP_通信协议.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="148">
   <si>
     <t>版本</t>
   </si>
@@ -544,23 +544,31 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>一共12个字节的数据空间，两个字节代表一个杠数据，分别D1、D2、D3、D4、D5、D6，分别对应1号缸到6号缸</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>n</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>一个30个字节的数据空间，每10个字节代表一个特效，代表3个512特效设备数据位</t>
+    <t>一共4个字节的数据空间，分别SPA，SPB，SPC，SPD分别对应座椅特效，环境特效，SPC、SPD预留</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>第一个为频闪灯，第二雪花机，第三个风机</t>
+    <t>一共6个字节的数据空间，每个字节代表一个杠数据，分别D1、D2、D3、D4、D5、D6，分别对应1号缸到6号缸</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>一共4个字节的数据空间，分别SPA，SPB，SPC，SPD分别对应座椅特效，环境特效，SPC、SPD预留</t>
+    <t>一个8个字节的数据空间，每1个字节代表一个特效的数据长度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>由上述每个字节的数据长度决定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n1+n2+n3+n4+n5+n6+n7+n8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体数值由读到的数据包决定</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3038,7 +3046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4868,7 +4876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4923,10 +4931,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>108</v>
@@ -4934,7 +4942,7 @@
     </row>
     <row r="9" spans="2:5" ht="27">
       <c r="B9" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
@@ -4946,43 +4954,45 @@
     </row>
     <row r="10" spans="2:5" ht="54">
       <c r="B10" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="54">
+    <row r="11" spans="2:5" ht="40.5">
       <c r="B11" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="27">
       <c r="B12" s="5">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="17">
